--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H2">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I2">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J2">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>291.553401247418</v>
+        <v>46.76463173330666</v>
       </c>
       <c r="R2">
-        <v>2623.980611226762</v>
+        <v>420.88168559976</v>
       </c>
       <c r="S2">
-        <v>0.004594915007502115</v>
+        <v>0.0009111891045059507</v>
       </c>
       <c r="T2">
-        <v>0.004594915007502117</v>
+        <v>0.0009111891045059508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H3">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I3">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J3">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>9513.884419873553</v>
+        <v>5541.013291686879</v>
       </c>
       <c r="R3">
-        <v>85624.95977886197</v>
+        <v>49869.11962518191</v>
       </c>
       <c r="S3">
-        <v>0.1499399084815331</v>
+        <v>0.1079643044791007</v>
       </c>
       <c r="T3">
-        <v>0.1499399084815331</v>
+        <v>0.1079643044791007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H4">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I4">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J4">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>3295.25735892638</v>
+        <v>1871.226389913022</v>
       </c>
       <c r="R4">
-        <v>29657.31623033742</v>
+        <v>16841.0375092172</v>
       </c>
       <c r="S4">
-        <v>0.05193363352075352</v>
+        <v>0.03646005614406211</v>
       </c>
       <c r="T4">
-        <v>0.05193363352075353</v>
+        <v>0.03646005614406211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H5">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I5">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J5">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>25.97086310871001</v>
+        <v>12.57384590984378</v>
       </c>
       <c r="R5">
-        <v>233.73776797839</v>
+        <v>113.164613188594</v>
       </c>
       <c r="S5">
-        <v>0.0004093037781257969</v>
+        <v>0.0002449960786631484</v>
       </c>
       <c r="T5">
-        <v>0.0004093037781257971</v>
+        <v>0.0002449960786631484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>429.900024</v>
       </c>
       <c r="I6">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J6">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>387.104049810832</v>
+        <v>106.60947395168</v>
       </c>
       <c r="R6">
-        <v>3483.936448297488</v>
+        <v>959.48526556512</v>
       </c>
       <c r="S6">
-        <v>0.00610080417628601</v>
+        <v>0.00207724058762759</v>
       </c>
       <c r="T6">
-        <v>0.006100804176286011</v>
+        <v>0.00207724058762759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>429.900024</v>
       </c>
       <c r="I7">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J7">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
         <v>12631.86494346495</v>
       </c>
       <c r="R7">
-        <v>113686.7844911846</v>
+        <v>113686.7844911845</v>
       </c>
       <c r="S7">
-        <v>0.1990796387664539</v>
+        <v>0.2461265550366407</v>
       </c>
       <c r="T7">
-        <v>0.1990796387664539</v>
+        <v>0.2461265550366407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>429.900024</v>
       </c>
       <c r="I8">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J8">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>4375.210384621246</v>
+        <v>4265.840522615462</v>
       </c>
       <c r="R8">
-        <v>39376.89346159121</v>
+        <v>38392.56470353915</v>
       </c>
       <c r="S8">
-        <v>0.06895381693803272</v>
+        <v>0.08311810147322923</v>
       </c>
       <c r="T8">
-        <v>0.06895381693803274</v>
+        <v>0.08311810147322923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>429.900024</v>
       </c>
       <c r="I9">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J9">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>34.48228092504001</v>
+        <v>28.66463496692534</v>
       </c>
       <c r="R9">
-        <v>310.34052832536</v>
+        <v>257.9817147023281</v>
       </c>
       <c r="S9">
-        <v>0.0005434446980809263</v>
+        <v>0.0005585183096374151</v>
       </c>
       <c r="T9">
-        <v>0.0005434446980809264</v>
+        <v>0.0005585183096374152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H10">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I10">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J10">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>367.1891899831739</v>
+        <v>107.6776336166533</v>
       </c>
       <c r="R10">
-        <v>3304.702709848566</v>
+        <v>969.0987025498799</v>
       </c>
       <c r="S10">
-        <v>0.00578694370371772</v>
+        <v>0.00209805322770454</v>
       </c>
       <c r="T10">
-        <v>0.005786943703717721</v>
+        <v>0.00209805322770454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H11">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I11">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J11">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>11982.00912347561</v>
+        <v>12758.42826026844</v>
       </c>
       <c r="R11">
-        <v>107838.0821112805</v>
+        <v>114825.8543424159</v>
       </c>
       <c r="S11">
-        <v>0.188837836588171</v>
+        <v>0.2485925878273863</v>
       </c>
       <c r="T11">
-        <v>0.188837836588171</v>
+        <v>0.2485925878273863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H12">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I12">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J12">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>4150.124386247359</v>
+        <v>4308.58155316901</v>
       </c>
       <c r="R12">
-        <v>37351.11947622623</v>
+        <v>38777.2339785211</v>
       </c>
       <c r="S12">
-        <v>0.06540643581511768</v>
+        <v>0.08395089240758</v>
       </c>
       <c r="T12">
-        <v>0.06540643581511769</v>
+        <v>0.08395089240758001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H13">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I13">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J13">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>32.70831397353</v>
+        <v>28.95183652367189</v>
       </c>
       <c r="R13">
-        <v>294.37482576177</v>
+        <v>260.566528713047</v>
       </c>
       <c r="S13">
-        <v>0.0005154867756782691</v>
+        <v>0.0005641143107092727</v>
       </c>
       <c r="T13">
-        <v>0.0005154867756782692</v>
+        <v>0.0005641143107092728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H14">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I14">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J14">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>363.4561285603347</v>
+        <v>60.17683883213333</v>
       </c>
       <c r="R14">
-        <v>3271.105157043012</v>
+        <v>541.5915494891999</v>
       </c>
       <c r="S14">
-        <v>0.005728110227989631</v>
+        <v>0.001172520296966174</v>
       </c>
       <c r="T14">
-        <v>0.005728110227989632</v>
+        <v>0.001172520296966174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H15">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I15">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J15">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>11860.19296644494</v>
+        <v>7130.189022381782</v>
       </c>
       <c r="R15">
-        <v>106741.7366980045</v>
+        <v>64171.70120143603</v>
       </c>
       <c r="S15">
-        <v>0.1869179999966525</v>
+        <v>0.1389287226148509</v>
       </c>
       <c r="T15">
-        <v>0.1869179999966525</v>
+        <v>0.1389287226148509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H16">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I16">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J16">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>4107.931779087561</v>
+        <v>2407.898548766535</v>
       </c>
       <c r="R16">
-        <v>36971.38601178805</v>
+        <v>21671.08693889882</v>
       </c>
       <c r="S16">
-        <v>0.06474147549218981</v>
+        <v>0.04691688656727116</v>
       </c>
       <c r="T16">
-        <v>0.06474147549218982</v>
+        <v>0.04691688656727116</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H17">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I17">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J17">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>32.37578200246001</v>
+        <v>16.18005468602556</v>
       </c>
       <c r="R17">
-        <v>291.38203802214</v>
+        <v>145.62049217423</v>
       </c>
       <c r="S17">
-        <v>0.0005102460337153683</v>
+        <v>0.000315261534064784</v>
       </c>
       <c r="T17">
-        <v>0.0005102460337153684</v>
+        <v>0.0003152615340647841</v>
       </c>
     </row>
   </sheetData>
